--- a/biology/Médecine/Paul_Beck_Goddard/Paul_Beck_Goddard.xlsx
+++ b/biology/Médecine/Paul_Beck_Goddard/Paul_Beck_Goddard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Beck Goddard (né le 26 janvier 1811 à Philadelphie, Pennsylvanie ; mort le 3 juillet 1866) est un professeur de médecine américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur d'anatomie à l'université de Pennsylvanie, membre de l'Académie des sciences naturelles et de la Société médicale de Pennsylvanie. Auteur de manuels de médecine sur le système nerveux (Plates of the cerebro-spinal nerves, with references; for the use of medical students, 1937) et la dentition (The anatomy, physiology and pathology of the human teeth: with the most approved methods of treatment including operations, and the method of making and setting artificial teeth).
 Paul Beck Goddard a achevé ses études à l'université de Pennsylvanie en 1832 avec un diplôme de médecine. D'abord assistant du Dr Robert Hare, un professeur de chimie à l'université, il s'est intéressé dès 1839 au daguerréotype, inventé en France. Il a mené des expériences avec Robert Cornelius, un photographe, pour améliorer l'invention de Daguerre et réduire le temps de prise de vue. 
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1892 : American Journal of Photography, Vol. XIII (Philadelphia: Thomas H. McCollin &amp; Company), pp. 356, 358.
 1864 : The Camera and the Pencil (Philadelphia: M. A. Root), p. 352.
